--- a/modules/admision/views/inscripcion/files/template_inscritos_maestria.xlsx
+++ b/modules/admision/views/inscripcion/files/template_inscritos_maestria.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28800" windowHeight="12555" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="PIVOT TIPO CONV" sheetId="1" r:id="rId1"/>
-    <sheet name="PIVOT GRUPO INT" sheetId="2" r:id="rId2"/>
+    <sheet name="CONV" sheetId="1" r:id="rId1"/>
+    <sheet name="GRUPO" sheetId="2" r:id="rId2"/>
     <sheet name="X Provincia" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="X Canton" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="DATA" sheetId="7" r:id="rId5"/>
@@ -376,9 +376,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="32">
@@ -456,6 +456,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -464,23 +493,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -495,15 +508,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -511,7 +571,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,14 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,67 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,7 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,7 +700,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,25 +772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,37 +802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,43 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,19 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +839,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,26 +916,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,30 +942,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,162 +975,194 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1584,7 +1583,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43695.9873726852" refreshedBy="edu" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43696.7703125" refreshedBy="edu" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T1048576" sheet="DATA"/>
   </cacheSource>
@@ -2542,7 +2541,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -2612,7 +2611,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -2677,805 +2676,805 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="12.75" spans="2:5">
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="50" t="e">
+      <c r="D2" s="49" t="e">
         <f>COUNTIF(#REF!,C2)</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" s="58" t="e">
+      <c r="E2" s="57" t="e">
         <f>COUNTIFS(#REF!,C2,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3" ht="12.75" spans="2:5">
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="50" t="e">
+      <c r="D3" s="49" t="e">
         <f>COUNTIF(#REF!,C3)</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="58" t="e">
+      <c r="E3" s="57" t="e">
         <f>COUNTIFS(#REF!,C3,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="2:5">
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="50" t="e">
+      <c r="D4" s="49" t="e">
         <f>COUNTIF(#REF!,C4)</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="58" t="e">
+      <c r="E4" s="57" t="e">
         <f>COUNTIFS(#REF!,C4,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" ht="12.75" spans="2:5">
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="50" t="e">
+      <c r="D5" s="49" t="e">
         <f>COUNTIF(#REF!,C5)</f>
         <v>#REF!</v>
       </c>
-      <c r="E5" s="58" t="e">
+      <c r="E5" s="57" t="e">
         <f>COUNTIFS(#REF!,C5,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" ht="12.75" spans="2:5">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="50" t="e">
+      <c r="D6" s="49" t="e">
         <f>COUNTIF(#REF!,C6)</f>
         <v>#REF!</v>
       </c>
-      <c r="E6" s="58" t="e">
+      <c r="E6" s="57" t="e">
         <f>COUNTIFS(#REF!,C6,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" ht="12.75" spans="2:5">
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="50" t="e">
+      <c r="D7" s="49" t="e">
         <f>COUNTIF(#REF!,C7)</f>
         <v>#REF!</v>
       </c>
-      <c r="E7" s="58" t="e">
+      <c r="E7" s="57" t="e">
         <f>COUNTIFS(#REF!,C7,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="2:5">
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="50" t="e">
+      <c r="D8" s="49" t="e">
         <f>COUNTIF(#REF!,C8)</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="58" t="e">
+      <c r="E8" s="57" t="e">
         <f>COUNTIFS(#REF!,C8,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" ht="12.75" spans="2:5">
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="50" t="e">
+      <c r="D9" s="49" t="e">
         <f>COUNTIF(#REF!,C9)</f>
         <v>#REF!</v>
       </c>
-      <c r="E9" s="58" t="e">
+      <c r="E9" s="57" t="e">
         <f>COUNTIFS(#REF!,C9,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" ht="12.75" spans="2:5">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="50" t="e">
+      <c r="D10" s="49" t="e">
         <f>COUNTIF(#REF!,C10)</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="58" t="e">
+      <c r="E10" s="57" t="e">
         <f>COUNTIFS(#REF!,C10,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" ht="12.75" spans="2:5">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50" t="e">
+      <c r="D11" s="49" t="e">
         <f>COUNTIF(#REF!,C11)</f>
         <v>#REF!</v>
       </c>
-      <c r="E11" s="58" t="e">
+      <c r="E11" s="57" t="e">
         <f>COUNTIFS(#REF!,C11,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" ht="12.75" spans="2:5">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="50" t="e">
+      <c r="D12" s="49" t="e">
         <f>COUNTIF(#REF!,C12)</f>
         <v>#REF!</v>
       </c>
-      <c r="E12" s="58" t="e">
+      <c r="E12" s="57" t="e">
         <f>COUNTIFS(#REF!,C12,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" ht="12.75" spans="2:5">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="50" t="e">
+      <c r="D13" s="49" t="e">
         <f>COUNTIF(#REF!,C13)</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="58" t="e">
+      <c r="E13" s="57" t="e">
         <f>COUNTIFS(#REF!,C13,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="2:5">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="50" t="e">
+      <c r="D14" s="49" t="e">
         <f>COUNTIF(#REF!,C14)</f>
         <v>#REF!</v>
       </c>
-      <c r="E14" s="58" t="e">
+      <c r="E14" s="57" t="e">
         <f>COUNTIFS(#REF!,C14,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="2:5">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="50" t="e">
+      <c r="D15" s="49" t="e">
         <f>COUNTIF(#REF!,C15)</f>
         <v>#REF!</v>
       </c>
-      <c r="E15" s="58" t="e">
+      <c r="E15" s="57" t="e">
         <f>COUNTIFS(#REF!,C15,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="2:5">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="50" t="e">
+      <c r="D16" s="49" t="e">
         <f>COUNTIF(#REF!,C16)</f>
         <v>#REF!</v>
       </c>
-      <c r="E16" s="58" t="e">
+      <c r="E16" s="57" t="e">
         <f>COUNTIFS(#REF!,C16,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="2:5">
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="50" t="e">
+      <c r="D17" s="49" t="e">
         <f>COUNTIF(#REF!,C17)</f>
         <v>#REF!</v>
       </c>
-      <c r="E17" s="58" t="e">
+      <c r="E17" s="57" t="e">
         <f>COUNTIFS(#REF!,C17,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="2:5">
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="50" t="e">
+      <c r="D18" s="49" t="e">
         <f>COUNTIF(#REF!,C18)</f>
         <v>#REF!</v>
       </c>
-      <c r="E18" s="58" t="e">
+      <c r="E18" s="57" t="e">
         <f>COUNTIFS(#REF!,C18,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="2:5">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="50" t="e">
+      <c r="D19" s="49" t="e">
         <f>COUNTIF(#REF!,C19)</f>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="58" t="e">
+      <c r="E19" s="57" t="e">
         <f>COUNTIFS(#REF!,C19,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" ht="12.75" spans="2:5">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>19</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="50" t="e">
+      <c r="D20" s="49" t="e">
         <f>COUNTIF(#REF!,C20)</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="58" t="e">
+      <c r="E20" s="57" t="e">
         <f>COUNTIFS(#REF!,C20,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" ht="12.75" spans="2:5">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="50" t="e">
+      <c r="D21" s="49" t="e">
         <f>COUNTIF(#REF!,C21)</f>
         <v>#REF!</v>
       </c>
-      <c r="E21" s="58" t="e">
+      <c r="E21" s="57" t="e">
         <f>COUNTIFS(#REF!,C21,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" ht="12.75" spans="2:5">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="50" t="e">
+      <c r="D22" s="49" t="e">
         <f>COUNTIF(#REF!,C22)</f>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="58" t="e">
+      <c r="E22" s="57" t="e">
         <f>COUNTIFS(#REF!,C22,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" ht="12.75" spans="2:5">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="50" t="e">
+      <c r="D23" s="49" t="e">
         <f>COUNTIF(#REF!,C23)</f>
         <v>#REF!</v>
       </c>
-      <c r="E23" s="58" t="e">
+      <c r="E23" s="57" t="e">
         <f>COUNTIFS(#REF!,C23,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" ht="12.75" spans="2:5">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="50" t="e">
+      <c r="D24" s="49" t="e">
         <f>COUNTIF(#REF!,C24)</f>
         <v>#REF!</v>
       </c>
-      <c r="E24" s="58" t="e">
+      <c r="E24" s="57" t="e">
         <f>COUNTIFS(#REF!,C24,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" ht="12.75" spans="2:5">
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>24</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="50" t="e">
+      <c r="D25" s="49" t="e">
         <f>COUNTIF(#REF!,C25)</f>
         <v>#REF!</v>
       </c>
-      <c r="E25" s="58" t="e">
+      <c r="E25" s="57" t="e">
         <f>COUNTIFS(#REF!,C25,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" ht="35.25" customHeight="1" spans="1:28">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="54" t="e">
+      <c r="D26" s="53" t="e">
         <f t="shared" ref="D26:E26" si="0">SUM(D2:D25)</f>
         <v>#REF!</v>
       </c>
-      <c r="E26" s="59" t="e">
+      <c r="E26" s="58" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
     </row>
     <row r="27" ht="12.75" spans="1:5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="58"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" ht="12.75" spans="1:5">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="58"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" ht="12.75" spans="1:5">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="58"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" ht="12.75" spans="1:5">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="58"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" ht="12.75" spans="1:5">
-      <c r="A31" s="55"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="58"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="57"/>
     </row>
     <row r="32" ht="12.75" spans="1:5">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="58"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="57"/>
     </row>
     <row r="33" ht="12.75" spans="1:5">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="58"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="57"/>
     </row>
     <row r="34" ht="12.75" spans="1:5">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="58"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="57"/>
     </row>
     <row r="35" ht="12.75" spans="1:5">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="58"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="57"/>
     </row>
     <row r="36" ht="12.75" spans="1:5">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="58"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" ht="12.75" spans="1:5">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="58"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" ht="12.75" spans="1:5">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="58"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="57"/>
     </row>
     <row r="39" ht="12.75" spans="1:5">
-      <c r="A39" s="55"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="58"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="57"/>
     </row>
     <row r="40" ht="12.75" spans="1:5">
-      <c r="A40" s="55"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="58"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="57"/>
     </row>
     <row r="41" ht="12.75" spans="1:5">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="58"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="57"/>
     </row>
     <row r="42" ht="12.75" spans="1:5">
-      <c r="A42" s="55"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="58"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" ht="12.75" spans="1:5">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="58"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" ht="12.75" spans="1:5">
-      <c r="A44" s="55"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="58"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="57"/>
     </row>
     <row r="45" ht="12.75" spans="1:5">
-      <c r="A45" s="55"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="58"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" ht="12.75" spans="1:5">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="58"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" ht="12.75" spans="1:5">
-      <c r="A47" s="55"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="58"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="57"/>
     </row>
     <row r="48" ht="12.75" spans="1:5">
-      <c r="A48" s="55"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="58"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="57"/>
     </row>
     <row r="49" ht="12.75" spans="1:5">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="58"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="57"/>
     </row>
     <row r="50" ht="12.75" spans="1:5">
-      <c r="A50" s="55"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="58"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" ht="12.75" spans="1:5">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="58"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" ht="12.75" spans="1:5">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="58"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="57"/>
     </row>
     <row r="53" ht="12.75" spans="1:5">
-      <c r="A53" s="55"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="58"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="57"/>
     </row>
     <row r="54" ht="12.75" spans="1:5">
-      <c r="A54" s="55"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="58"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="57"/>
     </row>
     <row r="55" ht="12.75" spans="1:5">
-      <c r="A55" s="55"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="58"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="57"/>
     </row>
     <row r="56" ht="12.75" spans="1:5">
-      <c r="A56" s="55"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="58"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="57"/>
     </row>
     <row r="57" ht="12.75" spans="1:5">
-      <c r="A57" s="55"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="58"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="57"/>
     </row>
     <row r="58" ht="12.75" spans="1:5">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="58"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="59" ht="12.75" spans="1:5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="58"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="57"/>
     </row>
     <row r="60" ht="12.75" spans="1:5">
-      <c r="A60" s="55"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="58"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" ht="12.75" spans="1:5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="58"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="57"/>
     </row>
     <row r="62" ht="12.75" spans="1:5">
-      <c r="A62" s="55"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="58"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" ht="12.75" spans="1:5">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="58"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="57"/>
     </row>
     <row r="64" ht="12.75" spans="1:5">
-      <c r="A64" s="55"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="58"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="57"/>
     </row>
     <row r="65" ht="12.75" spans="1:5">
-      <c r="A65" s="55"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="58"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" ht="12.75" spans="1:5">
-      <c r="A66" s="55"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="58"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="57"/>
     </row>
     <row r="67" ht="12.75" spans="1:5">
-      <c r="A67" s="55"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="58"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="57"/>
     </row>
     <row r="68" ht="12.75" spans="1:5">
-      <c r="A68" s="55"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="50"/>
-      <c r="E68" s="58"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="57"/>
     </row>
     <row r="69" ht="12.75" spans="1:5">
-      <c r="A69" s="55"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="58"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="57"/>
     </row>
     <row r="70" ht="12.75" spans="1:5">
-      <c r="A70" s="55"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="58"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="55"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="57"/>
     </row>
     <row r="71" ht="12.75" spans="1:5">
-      <c r="A71" s="55"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="58"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="55"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="57"/>
     </row>
     <row r="72" ht="12.75" spans="1:5">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="58"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="55"/>
+      <c r="D72" s="49"/>
+      <c r="E72" s="57"/>
     </row>
     <row r="73" ht="12.75" spans="1:5">
-      <c r="A73" s="55"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="58"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="55"/>
+      <c r="D73" s="49"/>
+      <c r="E73" s="57"/>
     </row>
     <row r="74" ht="12.75" spans="1:5">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="58"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="57"/>
     </row>
     <row r="75" ht="12.75" spans="1:5">
-      <c r="A75" s="55"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="58"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="57"/>
     </row>
     <row r="76" ht="12.75" spans="1:5">
-      <c r="A76" s="55"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="58"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="57"/>
     </row>
     <row r="77" ht="12.75" spans="1:5">
-      <c r="A77" s="55"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="58"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="57"/>
     </row>
     <row r="78" ht="12.75" spans="1:5">
-      <c r="A78" s="55"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="58"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3505,4139 +3504,4139 @@
   </cols>
   <sheetData>
     <row r="1" ht="35.25" customHeight="1" spans="1:25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="27" t="e">
+      <c r="F1" s="26" t="e">
         <f>SUM(F2:F112)</f>
         <v>#REF!</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="29" t="e">
+      <c r="H1" s="28" t="e">
         <f>SUM(G2:G76)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" ht="12.75" spans="1:25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="30" t="e">
+      <c r="E2" s="29" t="e">
         <f>COUNTIF(#REF!,D2)</f>
         <v>#REF!</v>
       </c>
-      <c r="F2" s="31" t="e">
+      <c r="F2" s="30" t="e">
         <f>SUM(E2:E26)</f>
         <v>#REF!</v>
       </c>
-      <c r="G2" s="8" t="e">
+      <c r="G2" s="7" t="e">
         <f>COUNTIFS(#REF!,D2,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" ht="12.75" spans="1:25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="30" t="e">
+      <c r="E3" s="29" t="e">
         <f>COUNTIF(#REF!,D3)</f>
         <v>#REF!</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="8" t="e">
+      <c r="F3" s="31"/>
+      <c r="G3" s="7" t="e">
         <f>COUNTIFS(#REF!,D3,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
     </row>
     <row r="4" ht="12.75" spans="1:25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="30" t="e">
+      <c r="E4" s="29" t="e">
         <f>COUNTIF(#REF!,D4)</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="8" t="e">
+      <c r="F4" s="31"/>
+      <c r="G4" s="7" t="e">
         <f>COUNTIFS(#REF!,D4,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
     </row>
     <row r="5" ht="12.75" spans="1:25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="30" t="e">
+      <c r="E5" s="29" t="e">
         <f>COUNTIF(#REF!,D5)</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="8" t="e">
+      <c r="F5" s="31"/>
+      <c r="G5" s="7" t="e">
         <f>COUNTIFS(#REF!,D5,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
     </row>
     <row r="6" ht="12.75" spans="1:25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="30" t="e">
+      <c r="E6" s="29" t="e">
         <f>COUNTIF(#REF!,D6)</f>
         <v>#REF!</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="8" t="e">
+      <c r="F6" s="31"/>
+      <c r="G6" s="7" t="e">
         <f>COUNTIFS(#REF!,D6,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
     </row>
     <row r="7" ht="12.75" spans="1:25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="30" t="e">
+      <c r="E7" s="29" t="e">
         <f>COUNTIF(#REF!,D7)</f>
         <v>#REF!</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="8" t="e">
+      <c r="F7" s="31"/>
+      <c r="G7" s="7" t="e">
         <f>COUNTIFS(#REF!,D7,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
     </row>
     <row r="8" ht="12.75" spans="1:25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="30" t="e">
+      <c r="E8" s="29" t="e">
         <f>COUNTIF(#REF!,D8)</f>
         <v>#REF!</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="8" t="e">
+      <c r="F8" s="31"/>
+      <c r="G8" s="7" t="e">
         <f>COUNTIFS(#REF!,D8,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
     </row>
     <row r="9" ht="12.75" spans="1:25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="30" t="e">
+      <c r="E9" s="29" t="e">
         <f>COUNTIF(#REF!,D9)</f>
         <v>#REF!</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="8" t="e">
+      <c r="F9" s="31"/>
+      <c r="G9" s="7" t="e">
         <f>COUNTIFS(#REF!,D9,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
     </row>
     <row r="10" ht="12.75" spans="1:25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="30" t="e">
+      <c r="E10" s="29" t="e">
         <f>COUNTIF(#REF!,D10)</f>
         <v>#REF!</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="8" t="e">
+      <c r="F10" s="31"/>
+      <c r="G10" s="7" t="e">
         <f>COUNTIFS(#REF!,D10,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.75" spans="1:25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="30" t="e">
+      <c r="E11" s="29" t="e">
         <f>COUNTIF(#REF!,D11)</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="8" t="e">
+      <c r="F11" s="31"/>
+      <c r="G11" s="7" t="e">
         <f>COUNTIFS(#REF!,D11,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
     </row>
     <row r="12" ht="12.75" spans="1:25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="30" t="e">
+      <c r="E12" s="29" t="e">
         <f>COUNTIF(#REF!,D12)</f>
         <v>#REF!</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="8" t="e">
+      <c r="F12" s="31"/>
+      <c r="G12" s="7" t="e">
         <f>COUNTIFS(#REF!,D12,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
     </row>
     <row r="13" ht="12.75" spans="1:25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="30" t="e">
+      <c r="E13" s="29" t="e">
         <f>COUNTIF(#REF!,D13)</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="8" t="e">
+      <c r="F13" s="31"/>
+      <c r="G13" s="7" t="e">
         <f>COUNTIFS(#REF!,D13,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
     </row>
     <row r="14" ht="12.75" spans="1:25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="30" t="e">
+      <c r="E14" s="29" t="e">
         <f>COUNTIF(#REF!,D14)</f>
         <v>#REF!</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="8" t="e">
+      <c r="F14" s="31"/>
+      <c r="G14" s="7" t="e">
         <f>COUNTIFS(#REF!,D14,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
     </row>
     <row r="15" ht="12.75" spans="1:25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="30" t="e">
+      <c r="E15" s="29" t="e">
         <f>COUNTIF(#REF!,D15)</f>
         <v>#REF!</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="8" t="e">
+      <c r="F15" s="31"/>
+      <c r="G15" s="7" t="e">
         <f>COUNTIFS(#REF!,D15,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
     </row>
     <row r="16" ht="12.75" spans="1:25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="30" t="e">
+      <c r="E16" s="29" t="e">
         <f>COUNTIF(#REF!,D16)</f>
         <v>#REF!</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="8" t="e">
+      <c r="F16" s="31"/>
+      <c r="G16" s="7" t="e">
         <f>COUNTIFS(#REF!,D16,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
     </row>
     <row r="17" ht="12.75" spans="1:25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="30" t="e">
+      <c r="E17" s="29" t="e">
         <f>COUNTIF(#REF!,D17)</f>
         <v>#REF!</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="8" t="e">
+      <c r="F17" s="31"/>
+      <c r="G17" s="7" t="e">
         <f>COUNTIFS(#REF!,D17,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
     </row>
     <row r="18" ht="12.75" spans="1:25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="30" t="e">
+      <c r="E18" s="29" t="e">
         <f>COUNTIF(#REF!,D18)</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="8" t="e">
+      <c r="F18" s="31"/>
+      <c r="G18" s="7" t="e">
         <f>COUNTIFS(#REF!,D18,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
     </row>
     <row r="19" ht="12.75" spans="1:25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="30" t="e">
+      <c r="E19" s="29" t="e">
         <f>COUNTIF(#REF!,D19)</f>
         <v>#REF!</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="8" t="e">
+      <c r="F19" s="31"/>
+      <c r="G19" s="7" t="e">
         <f>COUNTIFS(#REF!,D19,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
     </row>
     <row r="20" ht="12.75" spans="1:25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="30" t="e">
+      <c r="E20" s="29" t="e">
         <f>COUNTIF(#REF!,D20)</f>
         <v>#REF!</v>
       </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="8" t="e">
+      <c r="F20" s="31"/>
+      <c r="G20" s="7" t="e">
         <f>COUNTIFS(#REF!,D20,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
     </row>
     <row r="21" ht="12.75" spans="1:25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="30" t="e">
+      <c r="E21" s="29" t="e">
         <f>COUNTIF(#REF!,D21)</f>
         <v>#REF!</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="8" t="e">
+      <c r="F21" s="31"/>
+      <c r="G21" s="7" t="e">
         <f>COUNTIFS(#REF!,D21,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
     </row>
     <row r="22" ht="12.75" spans="1:25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="30" t="e">
+      <c r="E22" s="29" t="e">
         <f>COUNTIF(#REF!,D22)</f>
         <v>#REF!</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="8" t="e">
+      <c r="F22" s="31"/>
+      <c r="G22" s="7" t="e">
         <f>COUNTIFS(#REF!,D22,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
     </row>
     <row r="23" ht="12.75" spans="1:25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="30" t="e">
+      <c r="E23" s="29" t="e">
         <f>COUNTIF(#REF!,D23)</f>
         <v>#REF!</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="8" t="e">
+      <c r="F23" s="31"/>
+      <c r="G23" s="7" t="e">
         <f>COUNTIFS(#REF!,D23,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
     </row>
     <row r="24" ht="12.75" spans="1:25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="30" t="e">
+      <c r="E24" s="29" t="e">
         <f>COUNTIF(#REF!,D24)</f>
         <v>#REF!</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="8" t="e">
+      <c r="F24" s="31"/>
+      <c r="G24" s="7" t="e">
         <f>COUNTIFS(#REF!,D24,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
     </row>
     <row r="25" ht="12.75" spans="1:25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="30" t="e">
+      <c r="E25" s="29" t="e">
         <f>COUNTIF(#REF!,D25)</f>
         <v>#REF!</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="8" t="e">
+      <c r="F25" s="31"/>
+      <c r="G25" s="7" t="e">
         <f>COUNTIFS(#REF!,D25,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
     </row>
     <row r="26" ht="12.75" spans="1:25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="30" t="e">
+      <c r="E26" s="29" t="e">
         <f>COUNTIF(#REF!,D26)</f>
         <v>#REF!</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="8" t="e">
+      <c r="F26" s="32"/>
+      <c r="G26" s="7" t="e">
         <f>COUNTIFS(#REF!,D26,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
     </row>
     <row r="27" ht="18" spans="1:25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="34" t="e">
+      <c r="E27" s="33" t="e">
         <f>COUNTIF(#REF!,D27)</f>
         <v>#REF!</v>
       </c>
-      <c r="F27" s="35" t="e">
+      <c r="F27" s="34" t="e">
         <f t="shared" ref="F27:F31" si="0">E27</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="10" t="e">
+      <c r="G27" s="9" t="e">
         <f>COUNTIFS(#REF!,D27,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
     </row>
     <row r="28" ht="18" spans="1:25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9">
         <v>3</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="34" t="e">
+      <c r="E28" s="33" t="e">
         <f>COUNTIF(#REF!,D28)</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="35" t="e">
+      <c r="F28" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="10" t="e">
+      <c r="G28" s="9" t="e">
         <f>COUNTIFS(#REF!,D28,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
     </row>
     <row r="29" ht="18" spans="1:25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="12">
+      <c r="A29" s="6"/>
+      <c r="B29" s="11">
         <v>4</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="34" t="e">
+      <c r="E29" s="33" t="e">
         <f>COUNTIF(#REF!,D29)</f>
         <v>#REF!</v>
       </c>
-      <c r="F29" s="35" t="e">
+      <c r="F29" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="10" t="e">
+      <c r="G29" s="9" t="e">
         <f>COUNTIFS(#REF!,D29,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
     </row>
     <row r="30" ht="18" spans="1:25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="12">
+      <c r="A30" s="6"/>
+      <c r="B30" s="11">
         <v>5</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="34" t="e">
+      <c r="E30" s="33" t="e">
         <f>COUNTIF(#REF!,D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F30" s="35" t="e">
+      <c r="F30" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="10" t="e">
+      <c r="G30" s="9" t="e">
         <f>COUNTIFS(#REF!,D30,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
     </row>
     <row r="31" ht="18" spans="1:25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="12">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11">
         <v>6</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="34" t="e">
+      <c r="E31" s="33" t="e">
         <f>COUNTIF(#REF!,D31)</f>
         <v>#REF!</v>
       </c>
-      <c r="F31" s="35" t="e">
+      <c r="F31" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="10" t="e">
+      <c r="G31" s="9" t="e">
         <f>COUNTIFS(#REF!,D31,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
     </row>
     <row r="32" ht="19.5" spans="1:25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="12">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11">
         <v>7</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="34" t="e">
+      <c r="E32" s="33" t="e">
         <f>COUNTIF(#REF!,D32)</f>
         <v>#REF!</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
     </row>
     <row r="33" ht="12.75" spans="1:25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="14">
+      <c r="A33" s="6"/>
+      <c r="B33" s="13">
         <v>8</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="37" t="e">
+      <c r="E33" s="36" t="e">
         <f>COUNTIF(#REF!,D33)</f>
         <v>#REF!</v>
       </c>
-      <c r="F33" s="38" t="e">
+      <c r="F33" s="37" t="e">
         <f>SUM(E33:E38)</f>
         <v>#REF!</v>
       </c>
-      <c r="G33" s="14" t="e">
+      <c r="G33" s="13" t="e">
         <f>COUNTIFS(#REF!,D33,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
     </row>
     <row r="34" ht="12.75" spans="1:25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="14">
+      <c r="A34" s="6"/>
+      <c r="B34" s="13">
         <v>8</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="37" t="e">
+      <c r="E34" s="36" t="e">
         <f>COUNTIF(#REF!,D34)</f>
         <v>#REF!</v>
       </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="14" t="e">
+      <c r="F34" s="31"/>
+      <c r="G34" s="13" t="e">
         <f>COUNTIFS(#REF!,D34,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
     </row>
     <row r="35" ht="12.75" spans="1:25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="14">
+      <c r="A35" s="6"/>
+      <c r="B35" s="13">
         <v>8</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E35" s="37" t="e">
+      <c r="E35" s="36" t="e">
         <f>COUNTIF(#REF!,D35)</f>
         <v>#REF!</v>
       </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="14" t="e">
+      <c r="F35" s="31"/>
+      <c r="G35" s="13" t="e">
         <f>COUNTIFS(#REF!,D35,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
     </row>
     <row r="36" ht="12.75" spans="1:25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="14">
+      <c r="A36" s="6"/>
+      <c r="B36" s="13">
         <v>8</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="37" t="e">
+      <c r="E36" s="36" t="e">
         <f>COUNTIF(#REF!,D36)</f>
         <v>#REF!</v>
       </c>
-      <c r="F36" s="32"/>
-      <c r="G36" s="14" t="e">
+      <c r="F36" s="31"/>
+      <c r="G36" s="13" t="e">
         <f>COUNTIFS(#REF!,D36,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
     </row>
     <row r="37" ht="12.75" spans="1:25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="14">
+      <c r="A37" s="6"/>
+      <c r="B37" s="13">
         <v>8</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="37" t="e">
+      <c r="E37" s="36" t="e">
         <f>COUNTIF(#REF!,D37)</f>
         <v>#REF!</v>
       </c>
-      <c r="F37" s="32"/>
-      <c r="G37" s="14" t="e">
+      <c r="F37" s="31"/>
+      <c r="G37" s="13" t="e">
         <f>COUNTIFS(#REF!,D37,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
     </row>
     <row r="38" ht="12.75" spans="1:25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="14">
+      <c r="A38" s="6"/>
+      <c r="B38" s="13">
         <v>8</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E38" s="37" t="e">
+      <c r="E38" s="36" t="e">
         <f>COUNTIF(#REF!,D38)</f>
         <v>#REF!</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="14" t="e">
+      <c r="F38" s="32"/>
+      <c r="G38" s="13" t="e">
         <f>COUNTIFS(#REF!,D38,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
     </row>
     <row r="39" ht="18" spans="1:25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="10">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9">
         <v>9</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="34" t="e">
+      <c r="E39" s="33" t="e">
         <f>COUNTIF(#REF!,D39)</f>
         <v>#REF!</v>
       </c>
-      <c r="F39" s="35" t="e">
+      <c r="F39" s="34" t="e">
         <f t="shared" ref="F39:F41" si="1">E39</f>
         <v>#REF!</v>
       </c>
-      <c r="G39" s="14" t="e">
+      <c r="G39" s="13" t="e">
         <f>COUNTIFS(#REF!,D39,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
     </row>
     <row r="40" ht="18" spans="1:25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="12">
+      <c r="A40" s="6"/>
+      <c r="B40" s="11">
         <v>10</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="34" t="e">
+      <c r="E40" s="33" t="e">
         <f>COUNTIF(#REF!,D40)</f>
         <v>#REF!</v>
       </c>
-      <c r="F40" s="35" t="e">
+      <c r="F40" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="14" t="e">
+      <c r="G40" s="13" t="e">
         <f>COUNTIFS(#REF!,D40,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
     </row>
     <row r="41" ht="18" spans="1:25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="12">
+      <c r="A41" s="6"/>
+      <c r="B41" s="11">
         <v>11</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="34" t="e">
+      <c r="E41" s="33" t="e">
         <f>COUNTIF(#REF!,D41)</f>
         <v>#REF!</v>
       </c>
-      <c r="F41" s="35" t="e">
+      <c r="F41" s="34" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="G41" s="14" t="e">
+      <c r="G41" s="13" t="e">
         <f>COUNTIFS(#REF!,D41,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
     </row>
     <row r="42" ht="12.75" spans="1:25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="16">
+      <c r="A42" s="6"/>
+      <c r="B42" s="15">
         <v>12</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="39" t="e">
+      <c r="E42" s="38" t="e">
         <f>COUNTIF(#REF!,D42)</f>
         <v>#REF!</v>
       </c>
-      <c r="F42" s="40" t="e">
+      <c r="F42" s="39" t="e">
         <f>SUM(E42:E49)</f>
         <v>#REF!</v>
       </c>
-      <c r="G42" s="16" t="e">
+      <c r="G42" s="15" t="e">
         <f>COUNTIFS(#REF!,D42,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
     </row>
     <row r="43" ht="12.75" spans="1:25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="16">
+      <c r="A43" s="6"/>
+      <c r="B43" s="15">
         <v>12</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="39" t="e">
+      <c r="E43" s="38" t="e">
         <f>COUNTIF(#REF!,D43)</f>
         <v>#REF!</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="16" t="e">
+      <c r="F43" s="31"/>
+      <c r="G43" s="15" t="e">
         <f>COUNTIFS(#REF!,D43,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
     </row>
     <row r="44" ht="12.75" spans="1:25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="16">
+      <c r="A44" s="6"/>
+      <c r="B44" s="15">
         <v>12</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="E44" s="39" t="e">
+      <c r="E44" s="38" t="e">
         <f>COUNTIF(#REF!,D44)</f>
         <v>#REF!</v>
       </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="16" t="e">
+      <c r="F44" s="31"/>
+      <c r="G44" s="15" t="e">
         <f>COUNTIFS(#REF!,D44,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
     </row>
     <row r="45" ht="12.75" spans="1:25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="16">
+      <c r="A45" s="6"/>
+      <c r="B45" s="15">
         <v>12</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="39" t="e">
+      <c r="E45" s="38" t="e">
         <f>COUNTIF(#REF!,D45)</f>
         <v>#REF!</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="16" t="e">
+      <c r="F45" s="31"/>
+      <c r="G45" s="15" t="e">
         <f>COUNTIFS(#REF!,D45,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
     </row>
     <row r="46" ht="12.75" spans="1:25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="16">
+      <c r="A46" s="6"/>
+      <c r="B46" s="15">
         <v>12</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="39" t="e">
+      <c r="E46" s="38" t="e">
         <f>COUNTIF(#REF!,D46)</f>
         <v>#REF!</v>
       </c>
-      <c r="F46" s="32"/>
-      <c r="G46" s="16" t="e">
+      <c r="F46" s="31"/>
+      <c r="G46" s="15" t="e">
         <f>COUNTIFS(#REF!,D46,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
     </row>
     <row r="47" ht="12.75" spans="1:25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="16">
+      <c r="A47" s="6"/>
+      <c r="B47" s="15">
         <v>12</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E47" s="39" t="e">
+      <c r="E47" s="38" t="e">
         <f>COUNTIF(#REF!,D47)</f>
         <v>#REF!</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="16" t="e">
+      <c r="F47" s="31"/>
+      <c r="G47" s="15" t="e">
         <f>COUNTIFS(#REF!,D47,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
-      <c r="Y47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
     </row>
     <row r="48" ht="12.75" spans="1:25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="16">
+      <c r="A48" s="6"/>
+      <c r="B48" s="15">
         <v>12</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="39" t="e">
+      <c r="E48" s="38" t="e">
         <f>COUNTIF(#REF!,D48)</f>
         <v>#REF!</v>
       </c>
-      <c r="F48" s="32"/>
-      <c r="G48" s="16" t="e">
+      <c r="F48" s="31"/>
+      <c r="G48" s="15" t="e">
         <f>COUNTIFS(#REF!,D48,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
     </row>
     <row r="49" ht="12.75" spans="1:25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="16">
+      <c r="A49" s="6"/>
+      <c r="B49" s="15">
         <v>12</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="39" t="e">
+      <c r="E49" s="38" t="e">
         <f>COUNTIF(#REF!,D49)</f>
         <v>#REF!</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="16"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
     </row>
     <row r="50" ht="12.75" spans="1:25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7">
         <v>13</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E50" s="30" t="e">
+      <c r="E50" s="29" t="e">
         <f>COUNTIF(#REF!,D50)</f>
         <v>#REF!</v>
       </c>
-      <c r="F50" s="31" t="e">
+      <c r="F50" s="30" t="e">
         <f>SUM(E50:E55)</f>
         <v>#REF!</v>
       </c>
-      <c r="G50" s="8" t="e">
+      <c r="G50" s="7" t="e">
         <f>COUNTIFS(#REF!,D50,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
     </row>
     <row r="51" ht="12.75" spans="1:25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="8">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7">
         <v>13</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="30" t="e">
+      <c r="E51" s="29" t="e">
         <f>COUNTIF(#REF!,D51)</f>
         <v>#REF!</v>
       </c>
-      <c r="F51" s="32"/>
-      <c r="G51" s="8" t="e">
+      <c r="F51" s="31"/>
+      <c r="G51" s="7" t="e">
         <f>COUNTIFS(#REF!,D51,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
     </row>
     <row r="52" ht="12.75" spans="1:25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7">
         <v>13</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E52" s="30" t="e">
+      <c r="E52" s="29" t="e">
         <f>COUNTIF(#REF!,D52)</f>
         <v>#REF!</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="8" t="e">
+      <c r="F52" s="31"/>
+      <c r="G52" s="7" t="e">
         <f>COUNTIFS(#REF!,D52,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
     </row>
     <row r="53" ht="12.75" spans="1:25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7">
         <v>13</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E53" s="30" t="e">
+      <c r="E53" s="29" t="e">
         <f>COUNTIF(#REF!,D53)</f>
         <v>#REF!</v>
       </c>
-      <c r="F53" s="32"/>
-      <c r="G53" s="8" t="e">
+      <c r="F53" s="31"/>
+      <c r="G53" s="7" t="e">
         <f>COUNTIFS(#REF!,D53,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
-      <c r="X53" s="7"/>
-      <c r="Y53" s="7"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
     </row>
     <row r="54" ht="12.75" spans="1:25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8">
+      <c r="A54" s="6"/>
+      <c r="B54" s="7">
         <v>13</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="30" t="e">
+      <c r="E54" s="29" t="e">
         <f>COUNTIF(#REF!,D54)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="32"/>
-      <c r="G54" s="8" t="e">
+      <c r="F54" s="31"/>
+      <c r="G54" s="7" t="e">
         <f>COUNTIFS(#REF!,D54,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
     </row>
     <row r="55" ht="12.75" spans="1:25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="8">
+      <c r="A55" s="20"/>
+      <c r="B55" s="7">
         <v>13</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E55" s="30" t="e">
+      <c r="E55" s="29" t="e">
         <f>COUNTIF(#REF!,D55)</f>
         <v>#REF!</v>
       </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
     </row>
     <row r="56" ht="12.75" spans="1:25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21">
         <v>14</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="41" t="e">
+      <c r="E56" s="40" t="e">
         <f>COUNTIF(#REF!,D56)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="31" t="e">
+      <c r="F56" s="30" t="e">
         <f>SUM(E56:E61)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="23" t="e">
+      <c r="G56" s="22" t="e">
         <f>COUNTIFS(#REF!,D56,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
     </row>
     <row r="57" ht="12.75" spans="1:25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="23">
+      <c r="A57" s="6"/>
+      <c r="B57" s="22">
         <v>14</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="41" t="e">
+      <c r="E57" s="40" t="e">
         <f>COUNTIF(#REF!,D57)</f>
         <v>#REF!</v>
       </c>
-      <c r="F57" s="32"/>
-      <c r="G57" s="23" t="e">
+      <c r="F57" s="31"/>
+      <c r="G57" s="22" t="e">
         <f>COUNTIFS(#REF!,D57,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
     </row>
     <row r="58" ht="12.75" spans="1:25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="23">
+      <c r="A58" s="6"/>
+      <c r="B58" s="22">
         <v>14</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="41" t="e">
+      <c r="E58" s="40" t="e">
         <f>COUNTIF(#REF!,D58)</f>
         <v>#REF!</v>
       </c>
-      <c r="F58" s="32"/>
-      <c r="G58" s="23" t="e">
+      <c r="F58" s="31"/>
+      <c r="G58" s="22" t="e">
         <f>COUNTIFS(#REF!,D58,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
-      <c r="X58" s="7"/>
-      <c r="Y58" s="7"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
     </row>
     <row r="59" ht="12.75" spans="1:25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="23">
+      <c r="A59" s="6"/>
+      <c r="B59" s="22">
         <v>14</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="41" t="e">
+      <c r="E59" s="40" t="e">
         <f>COUNTIF(#REF!,D59)</f>
         <v>#REF!</v>
       </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="23" t="e">
+      <c r="F59" s="31"/>
+      <c r="G59" s="22" t="e">
         <f>COUNTIFS(#REF!,D59,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
     </row>
     <row r="60" ht="12.75" spans="1:25">
-      <c r="A60" s="7"/>
-      <c r="B60" s="23">
+      <c r="A60" s="6"/>
+      <c r="B60" s="22">
         <v>14</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E60" s="41" t="e">
+      <c r="E60" s="40" t="e">
         <f>COUNTIF(#REF!,D60)</f>
         <v>#REF!</v>
       </c>
-      <c r="F60" s="32"/>
-      <c r="G60" s="23" t="e">
+      <c r="F60" s="31"/>
+      <c r="G60" s="22" t="e">
         <f>COUNTIFS(#REF!,D60,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
     </row>
     <row r="61" ht="12.75" spans="1:25">
-      <c r="A61" s="7"/>
-      <c r="B61" s="23">
+      <c r="A61" s="6"/>
+      <c r="B61" s="22">
         <v>14</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="41" t="e">
+      <c r="E61" s="40" t="e">
         <f>COUNTIF(#REF!,D61)</f>
         <v>#REF!</v>
       </c>
-      <c r="F61" s="33"/>
-      <c r="G61" s="23" t="e">
+      <c r="F61" s="32"/>
+      <c r="G61" s="22" t="e">
         <f>COUNTIFS(#REF!,D61,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
-      <c r="X61" s="7"/>
-      <c r="Y61" s="7"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
     </row>
     <row r="62" ht="18" spans="1:25">
-      <c r="A62" s="7"/>
-      <c r="B62" s="11">
+      <c r="A62" s="6"/>
+      <c r="B62" s="10">
         <v>15</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="34" t="e">
+      <c r="E62" s="33" t="e">
         <f>COUNTIF(#REF!,D62)</f>
         <v>#REF!</v>
       </c>
-      <c r="F62" s="35" t="e">
+      <c r="F62" s="34" t="e">
         <f t="shared" ref="F62:F66" si="2">E62</f>
         <v>#REF!</v>
       </c>
-      <c r="G62" s="10" t="e">
+      <c r="G62" s="9" t="e">
         <f>COUNTIFS(#REF!,D62,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
-      <c r="X62" s="7"/>
-      <c r="Y62" s="7"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
     </row>
     <row r="63" ht="18" spans="1:25">
-      <c r="A63" s="7"/>
-      <c r="B63" s="12">
+      <c r="A63" s="6"/>
+      <c r="B63" s="11">
         <v>16</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="34" t="e">
+      <c r="E63" s="33" t="e">
         <f>COUNTIF(#REF!,D63)</f>
         <v>#REF!</v>
       </c>
-      <c r="F63" s="35" t="e">
+      <c r="F63" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G63" s="10" t="e">
+      <c r="G63" s="9" t="e">
         <f>COUNTIFS(#REF!,D63,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
-      <c r="X63" s="7"/>
-      <c r="Y63" s="7"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
     </row>
     <row r="64" ht="18" spans="1:25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="12">
+      <c r="A64" s="6"/>
+      <c r="B64" s="11">
         <v>17</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E64" s="34" t="e">
+      <c r="E64" s="33" t="e">
         <f>COUNTIF(#REF!,D64)</f>
         <v>#REF!</v>
       </c>
-      <c r="F64" s="35" t="e">
+      <c r="F64" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G64" s="10" t="e">
+      <c r="G64" s="9" t="e">
         <f>COUNTIFS(#REF!,D64,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
-      <c r="X64" s="7"/>
-      <c r="Y64" s="7"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
     </row>
     <row r="65" ht="18" spans="1:25">
-      <c r="A65" s="7"/>
-      <c r="B65" s="12">
+      <c r="A65" s="6"/>
+      <c r="B65" s="11">
         <v>18</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E65" s="34" t="e">
+      <c r="E65" s="33" t="e">
         <f>COUNTIF(#REF!,D65)</f>
         <v>#REF!</v>
       </c>
-      <c r="F65" s="35" t="e">
+      <c r="F65" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G65" s="10" t="e">
+      <c r="G65" s="9" t="e">
         <f>COUNTIFS(#REF!,D65,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
-      <c r="X65" s="7"/>
-      <c r="Y65" s="7"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
     </row>
     <row r="66" ht="18" spans="1:25">
-      <c r="A66" s="7"/>
-      <c r="B66" s="11">
+      <c r="A66" s="6"/>
+      <c r="B66" s="10">
         <v>19</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="34" t="e">
+      <c r="E66" s="33" t="e">
         <f>COUNTIF(#REF!,D66)</f>
         <v>#REF!</v>
       </c>
-      <c r="F66" s="35" t="e">
+      <c r="F66" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
-      <c r="G66" s="10" t="e">
+      <c r="G66" s="9" t="e">
         <f>COUNTIFS(#REF!,D66,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
     </row>
     <row r="67" ht="12.75" spans="1:25">
-      <c r="A67" s="7"/>
-      <c r="B67" s="42">
+      <c r="A67" s="6"/>
+      <c r="B67" s="41">
         <v>20</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="45" t="e">
+      <c r="E67" s="44" t="e">
         <f>COUNTIF(#REF!,D67)</f>
         <v>#REF!</v>
       </c>
-      <c r="F67" s="46" t="e">
+      <c r="F67" s="45" t="e">
         <f>SUM(E67:E69)</f>
         <v>#REF!</v>
       </c>
-      <c r="G67" s="42" t="e">
+      <c r="G67" s="41" t="e">
         <f>COUNTIFS(#REF!,D67,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
-      <c r="X67" s="7"/>
-      <c r="Y67" s="7"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
     </row>
     <row r="68" ht="12.75" spans="1:25">
-      <c r="A68" s="7"/>
-      <c r="B68" s="42">
+      <c r="A68" s="6"/>
+      <c r="B68" s="41">
         <v>20</v>
       </c>
-      <c r="C68" s="42" t="s">
+      <c r="C68" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="E68" s="45" t="e">
+      <c r="E68" s="44" t="e">
         <f>COUNTIF(#REF!,D68)</f>
         <v>#REF!</v>
       </c>
-      <c r="F68" s="32"/>
-      <c r="G68" s="42" t="e">
+      <c r="F68" s="31"/>
+      <c r="G68" s="41" t="e">
         <f>COUNTIFS(#REF!,D68,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
-      <c r="X68" s="7"/>
-      <c r="Y68" s="7"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
     </row>
     <row r="69" ht="12.75" spans="1:25">
-      <c r="A69" s="7"/>
-      <c r="B69" s="42">
+      <c r="A69" s="6"/>
+      <c r="B69" s="41">
         <v>20</v>
       </c>
-      <c r="C69" s="42" t="s">
+      <c r="C69" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="45" t="e">
+      <c r="E69" s="44" t="e">
         <f>COUNTIF(#REF!,D69)</f>
         <v>#REF!</v>
       </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="42" t="e">
+      <c r="F69" s="32"/>
+      <c r="G69" s="41" t="e">
         <f>COUNTIFS(#REF!,D69,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
-      <c r="X69" s="7"/>
-      <c r="Y69" s="7"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
     </row>
     <row r="70" ht="18" spans="1:25">
-      <c r="A70" s="7"/>
-      <c r="B70" s="10">
+      <c r="A70" s="6"/>
+      <c r="B70" s="9">
         <v>21</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="34" t="e">
+      <c r="E70" s="33" t="e">
         <f>COUNTIF(#REF!,D70)</f>
         <v>#REF!</v>
       </c>
-      <c r="F70" s="35" t="e">
+      <c r="F70" s="34" t="e">
         <f t="shared" ref="F70:F72" si="3">E70</f>
         <v>#REF!</v>
       </c>
-      <c r="G70" s="10" t="e">
+      <c r="G70" s="9" t="e">
         <f>COUNTIFS(#REF!,D70,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
     </row>
     <row r="71" ht="18" spans="1:25">
-      <c r="A71" s="7"/>
-      <c r="B71" s="12">
+      <c r="A71" s="6"/>
+      <c r="B71" s="11">
         <v>22</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="34" t="e">
+      <c r="E71" s="33" t="e">
         <f>COUNTIF(#REF!,D71)</f>
         <v>#REF!</v>
       </c>
-      <c r="F71" s="35" t="e">
+      <c r="F71" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="G71" s="10" t="e">
+      <c r="G71" s="9" t="e">
         <f>COUNTIFS(#REF!,D71,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="7"/>
-      <c r="Y71" s="7"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
     </row>
     <row r="72" ht="18" spans="1:25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="10">
+      <c r="A72" s="6"/>
+      <c r="B72" s="9">
         <v>23</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="34" t="e">
+      <c r="E72" s="33" t="e">
         <f>COUNTIF(#REF!,D72)</f>
         <v>#REF!</v>
       </c>
-      <c r="F72" s="35" t="e">
+      <c r="F72" s="34" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="G72" s="10" t="e">
+      <c r="G72" s="9" t="e">
         <f>COUNTIFS(#REF!,D72,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
-      <c r="X72" s="7"/>
-      <c r="Y72" s="7"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
     </row>
     <row r="73" ht="12.75" spans="1:25">
-      <c r="A73" s="7"/>
-      <c r="B73" s="16">
+      <c r="A73" s="6"/>
+      <c r="B73" s="15">
         <v>24</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="E73" s="39" t="e">
+      <c r="E73" s="38" t="e">
         <f>COUNTIF(#REF!,D73)</f>
         <v>#REF!</v>
       </c>
-      <c r="F73" s="40" t="e">
+      <c r="F73" s="39" t="e">
         <f>SUM(E73:E75)</f>
         <v>#REF!</v>
       </c>
-      <c r="G73" s="16"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
     </row>
     <row r="74" ht="12.75" spans="1:25">
-      <c r="A74" s="7"/>
-      <c r="B74" s="16">
+      <c r="A74" s="6"/>
+      <c r="B74" s="15">
         <v>24</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E74" s="39" t="e">
+      <c r="E74" s="38" t="e">
         <f>COUNTIF(#REF!,D74)</f>
         <v>#REF!</v>
       </c>
-      <c r="F74" s="32"/>
-      <c r="G74" s="16" t="e">
+      <c r="F74" s="31"/>
+      <c r="G74" s="15" t="e">
         <f>COUNTIFS(#REF!,D74,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
-      <c r="X74" s="7"/>
-      <c r="Y74" s="7"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
     </row>
     <row r="75" ht="12.75" spans="1:25">
-      <c r="A75" s="7"/>
-      <c r="B75" s="16">
+      <c r="A75" s="6"/>
+      <c r="B75" s="15">
         <v>24</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E75" s="39" t="e">
+      <c r="E75" s="38" t="e">
         <f>COUNTIF(#REF!,D75)</f>
         <v>#REF!</v>
       </c>
-      <c r="F75" s="33"/>
-      <c r="G75" s="16" t="e">
+      <c r="F75" s="32"/>
+      <c r="G75" s="15" t="e">
         <f>COUNTIFS(#REF!,D75,#REF!,"UNE")</f>
         <v>#REF!</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
-      <c r="X75" s="7"/>
-      <c r="Y75" s="7"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
     </row>
     <row r="76" ht="18" spans="1:25">
-      <c r="A76" s="7"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
-      <c r="X76" s="7"/>
-      <c r="Y76" s="7"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
     </row>
     <row r="77" ht="18" spans="1:25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
-      <c r="X77" s="7"/>
-      <c r="Y77" s="7"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
     </row>
     <row r="78" ht="18" spans="1:25">
-      <c r="A78" s="7"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="7"/>
-      <c r="X78" s="7"/>
-      <c r="Y78" s="7"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
     </row>
     <row r="79" ht="18" spans="1:25">
-      <c r="A79" s="7"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
-      <c r="X79" s="7"/>
-      <c r="Y79" s="7"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
     </row>
     <row r="80" ht="18" spans="1:25">
-      <c r="A80" s="7"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
     </row>
     <row r="81" ht="18" spans="1:25">
-      <c r="A81" s="7"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
-      <c r="X81" s="7"/>
-      <c r="Y81" s="7"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
     </row>
     <row r="82" ht="18" spans="1:25">
-      <c r="A82" s="7"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
     </row>
     <row r="83" ht="18" spans="1:25">
-      <c r="A83" s="7"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
     </row>
     <row r="84" ht="18" spans="1:25">
-      <c r="A84" s="7"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
     </row>
     <row r="85" ht="18" spans="1:25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
     </row>
     <row r="86" ht="18" spans="1:25">
-      <c r="A86" s="7"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
     </row>
     <row r="87" ht="18" spans="1:25">
-      <c r="A87" s="7"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
     </row>
     <row r="88" ht="18" spans="1:25">
-      <c r="A88" s="7"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
     </row>
     <row r="89" ht="18" spans="1:25">
-      <c r="A89" s="7"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
+      <c r="A89" s="6"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
     </row>
     <row r="90" ht="18" spans="1:25">
-      <c r="A90" s="7"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
     </row>
     <row r="91" ht="18" spans="1:25">
-      <c r="A91" s="7"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
     </row>
     <row r="92" ht="18" spans="1:25">
-      <c r="A92" s="7"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
     </row>
     <row r="93" ht="18" spans="1:25">
-      <c r="A93" s="7"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
     </row>
     <row r="94" ht="18" spans="1:25">
-      <c r="A94" s="7"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
     </row>
     <row r="95" ht="18" spans="1:25">
-      <c r="A95" s="7"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
     </row>
     <row r="96" ht="18" spans="1:25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
     </row>
     <row r="97" ht="18" spans="1:25">
-      <c r="A97" s="7"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
     </row>
     <row r="98" ht="18" spans="1:25">
-      <c r="A98" s="7"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
     </row>
     <row r="99" ht="18" spans="1:25">
-      <c r="A99" s="7"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="34"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
     </row>
     <row r="100" ht="18" spans="1:25">
-      <c r="A100" s="7"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="35"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
+      <c r="A100" s="6"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
     </row>
     <row r="101" ht="18" spans="1:25">
-      <c r="A101" s="7"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="34"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
     </row>
     <row r="102" ht="18" spans="1:25">
-      <c r="A102" s="7"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="34"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
     </row>
     <row r="103" ht="18" spans="1:25">
-      <c r="A103" s="7"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
     </row>
     <row r="104" ht="18" spans="1:25">
-      <c r="A104" s="7"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="35"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
     </row>
     <row r="105" ht="18" spans="1:25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6"/>
     </row>
     <row r="106" ht="18" spans="1:25">
-      <c r="A106" s="7"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="35"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="T106" s="6"/>
+      <c r="U106" s="6"/>
+      <c r="V106" s="6"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6"/>
     </row>
     <row r="107" ht="18" spans="1:25">
-      <c r="A107" s="7"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+      <c r="U107" s="6"/>
+      <c r="V107" s="6"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6"/>
     </row>
     <row r="108" ht="18" spans="1:25">
-      <c r="A108" s="7"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="34"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
     </row>
     <row r="109" ht="18" spans="1:25">
-      <c r="A109" s="7"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="34"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
     </row>
     <row r="110" ht="18" spans="1:25">
-      <c r="A110" s="7"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
     </row>
     <row r="111" ht="18" spans="1:25">
-      <c r="A111" s="7"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="34"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="7"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
+      <c r="A111" s="6"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6"/>
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
     </row>
     <row r="112" ht="18" spans="1:25">
-      <c r="A112" s="7"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="34"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="33"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6"/>
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
     </row>
     <row r="113" ht="18" spans="1:25">
-      <c r="A113" s="7"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+      <c r="U113" s="6"/>
+      <c r="V113" s="6"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="6"/>
+      <c r="Y113" s="6"/>
     </row>
     <row r="114" ht="18" spans="1:25">
-      <c r="A114" s="7"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6"/>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="6"/>
+      <c r="Y114" s="6"/>
     </row>
     <row r="115" ht="18" spans="1:25">
-      <c r="A115" s="7"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6"/>
+      <c r="V115" s="6"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6"/>
     </row>
     <row r="116" ht="18" spans="1:25">
-      <c r="A116" s="7"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="34"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+      <c r="U116" s="6"/>
+      <c r="V116" s="6"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="6"/>
+      <c r="Y116" s="6"/>
     </row>
     <row r="117" ht="18" spans="1:25">
-      <c r="A117" s="7"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="33"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+      <c r="U117" s="6"/>
+      <c r="V117" s="6"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="6"/>
+      <c r="Y117" s="6"/>
     </row>
     <row r="118" ht="18" spans="1:25">
-      <c r="A118" s="7"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="34"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+      <c r="U118" s="6"/>
+      <c r="V118" s="6"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="6"/>
+      <c r="Y118" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7660,88 +7659,88 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="17.2857142857143" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="7" max="7" width="63.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.85714285714286" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.7142857142857" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.1428571428571" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="14" max="14" width="36.8571428571429" style="2" customWidth="1"/>
-    <col min="15" max="15" width="34" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.7142857142857" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.14285714285714" style="2"/>
+    <col min="1" max="2" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.4285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.7142857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="63.7142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="36.8571428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:20">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>115</v>
       </c>
     </row>

--- a/modules/admision/views/inscripcion/files/template_inscritos_maestria.xlsx
+++ b/modules/admision/views/inscripcion/files/template_inscritos_maestria.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="118">
   <si>
     <t>Count of CANTóN</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>SEGUNDO APELLIDO</t>
+  </si>
+  <si>
+    <t>CORREO</t>
+  </si>
+  <si>
+    <t>CELULAR</t>
   </si>
   <si>
     <t>REVISIóN</t>
@@ -376,10 +382,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -465,75 +471,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,7 +493,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,9 +531,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,8 +565,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +589,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -599,11 +597,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -670,7 +676,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,121 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,49 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,17 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +946,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -953,6 +977,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,185 +1015,152 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,11 +1589,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43696.7703125" refreshedBy="edu" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="43710.8402314815" refreshedBy="edu" recordCount="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:T1048576" sheet="DATA"/>
+    <worksheetSource ref="A1:V1048576" sheet="DATA"/>
   </cacheSource>
-  <cacheFields count="20">
+  <cacheFields count="22">
     <cacheField name="ID" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
         <m/>
@@ -1748,6 +1754,16 @@
         <m/>
       </sharedItems>
     </cacheField>
+    <cacheField name="CORREO" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="CELULAR" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
     <cacheField name="REVISIóN" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNonDate="0" count="1">
         <m/>
@@ -1825,6 +1841,8 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1832,7 +1850,7 @@
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Datos" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="5" compact="0" compactData="0" showDrill="1">
   <location ref="A1:D4" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="20">
+  <pivotFields count="22">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -2003,6 +2021,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -2097,7 +2117,7 @@
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Introd" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="" updatedVersion="5" compact="0" compactData="0" showDrill="1">
   <location ref="A1:C3" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
-  <pivotFields count="20">
+  <pivotFields count="22">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -2238,6 +2258,8 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
@@ -2541,7 +2563,16 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3 C3:D3"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" activeRow="2" previousRow="2" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="3" count="1">
+              <x v="35"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
@@ -2611,7 +2642,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -7656,10 +7687,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
@@ -7671,18 +7702,20 @@
     <col min="6" max="6" width="47.7142857142857" style="1" customWidth="1"/>
     <col min="7" max="7" width="63.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85714285714286" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1428571428571" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="36.8571428571429" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.14285714285714" style="1"/>
+    <col min="9" max="9" width="20.4285714285714" style="1" customWidth="1"/>
+    <col min="10" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7142857142857" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.8571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="34" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7142857142857" style="1" customWidth="1"/>
+    <col min="19" max="21" width="9.14285714285714" style="1"/>
+    <col min="22" max="22" width="18.5714285714286" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
@@ -7742,6 +7775,12 @@
       </c>
       <c r="T1" s="2" t="s">
         <v>115</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
